--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tg-Lrp2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tg-Lrp2.xlsx
@@ -543,28 +543,28 @@
         <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.05307100000000001</v>
+        <v>0.021072</v>
       </c>
       <c r="H2">
-        <v>0.106142</v>
+        <v>0.042144</v>
       </c>
       <c r="I2">
-        <v>0.05191038755504432</v>
+        <v>0.006826597554061716</v>
       </c>
       <c r="J2">
-        <v>0.04141173349355661</v>
+        <v>0.004661306488643927</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.0151305</v>
+        <v>0.032708</v>
       </c>
       <c r="N2">
-        <v>0.030261</v>
+        <v>0.065416</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -573,16 +573,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.0008029907655000001</v>
+        <v>0.0006892229760000001</v>
       </c>
       <c r="R2">
-        <v>0.003211963062000001</v>
+        <v>0.002756891904</v>
       </c>
       <c r="S2">
-        <v>0.05191038755504432</v>
+        <v>0.006826597554061716</v>
       </c>
       <c r="T2">
-        <v>0.04141173349355661</v>
+        <v>0.004661306488643927</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,25 +608,25 @@
         <v>0.264044</v>
       </c>
       <c r="H3">
-        <v>0.7921319999999999</v>
+        <v>0.7921320000000001</v>
       </c>
       <c r="I3">
-        <v>0.2582696081020542</v>
+        <v>0.08554110310196809</v>
       </c>
       <c r="J3">
-        <v>0.3090535252371162</v>
+        <v>0.08761318411784576</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.0151305</v>
+        <v>0.032708</v>
       </c>
       <c r="N3">
-        <v>0.030261</v>
+        <v>0.065416</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -635,16 +635,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.003995117742</v>
+        <v>0.008636351152</v>
       </c>
       <c r="R3">
-        <v>0.023970706452</v>
+        <v>0.05181810691200001</v>
       </c>
       <c r="S3">
-        <v>0.2582696081020542</v>
+        <v>0.08554110310196809</v>
       </c>
       <c r="T3">
-        <v>0.3090535252371162</v>
+        <v>0.08761318411784576</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,28 +667,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.109986</v>
+        <v>0.08179599999999999</v>
       </c>
       <c r="H4">
-        <v>0.329958</v>
+        <v>0.245388</v>
       </c>
       <c r="I4">
-        <v>0.1075807104751956</v>
+        <v>0.02649906859965984</v>
       </c>
       <c r="J4">
-        <v>0.128734457237163</v>
+        <v>0.02714096138561494</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.0151305</v>
+        <v>0.032708</v>
       </c>
       <c r="N4">
-        <v>0.030261</v>
+        <v>0.065416</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -697,16 +697,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.001664143173</v>
+        <v>0.002675383568</v>
       </c>
       <c r="R4">
-        <v>0.009984859037999999</v>
+        <v>0.016052301408</v>
       </c>
       <c r="S4">
-        <v>0.1075807104751956</v>
+        <v>0.02649906859965984</v>
       </c>
       <c r="T4">
-        <v>0.128734457237163</v>
+        <v>0.02714096138561494</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,28 +729,28 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.450913</v>
+        <v>0.197936</v>
       </c>
       <c r="H5">
-        <v>0.901826</v>
+        <v>0.395872</v>
       </c>
       <c r="I5">
-        <v>0.4410519602722334</v>
+        <v>0.06412440268891229</v>
       </c>
       <c r="J5">
-        <v>0.351851085993859</v>
+        <v>0.04378513482992712</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.0151305</v>
+        <v>0.032708</v>
       </c>
       <c r="N5">
-        <v>0.030261</v>
+        <v>0.065416</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -759,16 +759,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.0068225391465</v>
+        <v>0.006474090688</v>
       </c>
       <c r="R5">
-        <v>0.027290156586</v>
+        <v>0.025896362752</v>
       </c>
       <c r="S5">
-        <v>0.4410519602722334</v>
+        <v>0.06412440268891229</v>
       </c>
       <c r="T5">
-        <v>0.351851085993859</v>
+        <v>0.04378513482992712</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,34 +785,34 @@
         <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.01924366666666667</v>
+        <v>2.439847666666667</v>
       </c>
       <c r="H6">
-        <v>0.057731</v>
+        <v>7.319543</v>
       </c>
       <c r="I6">
-        <v>0.01882282592464348</v>
+        <v>0.7904260684106801</v>
       </c>
       <c r="J6">
-        <v>0.02252398472156655</v>
+        <v>0.8095727334806435</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.0151305</v>
+        <v>0.032708</v>
       </c>
       <c r="N6">
-        <v>0.030261</v>
+        <v>0.065416</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -821,16 +821,16 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.0002911662985</v>
+        <v>0.07980253748133334</v>
       </c>
       <c r="R6">
-        <v>0.001746997791</v>
+        <v>0.478815224888</v>
       </c>
       <c r="S6">
-        <v>0.01882282592464348</v>
+        <v>0.7904260684106801</v>
       </c>
       <c r="T6">
-        <v>0.02252398472156655</v>
+        <v>0.8095727334806435</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,28 +853,28 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.1251003333333333</v>
+        <v>0.08205433333333334</v>
       </c>
       <c r="H7">
-        <v>0.375301</v>
+        <v>0.246163</v>
       </c>
       <c r="I7">
-        <v>0.1223645076708289</v>
+        <v>0.02658275964471802</v>
       </c>
       <c r="J7">
-        <v>0.1464252133167388</v>
+        <v>0.02722667969732477</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.0151305</v>
+        <v>0.032708</v>
       </c>
       <c r="N7">
-        <v>0.030261</v>
+        <v>0.065416</v>
       </c>
       <c r="O7">
         <v>1</v>
@@ -883,16 +883,16 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>0.0018928305935</v>
+        <v>0.002683833134666667</v>
       </c>
       <c r="R7">
-        <v>0.011356983561</v>
+        <v>0.016102998808</v>
       </c>
       <c r="S7">
-        <v>0.1223645076708289</v>
+        <v>0.02658275964471802</v>
       </c>
       <c r="T7">
-        <v>0.1464252133167388</v>
+        <v>0.02722667969732477</v>
       </c>
     </row>
   </sheetData>
